--- a/record.xlsx
+++ b/record.xlsx
@@ -1,14 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\jinjieup-shop.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5D5CB9-0C3A-4E27-BBF3-EB1C490B92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2385" yWindow="1125" windowWidth="20340" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="商品记录" sheetId="1" r:id="rId1"/>
+    <sheet name="收款码链接" sheetId="2" r:id="rId2"/>
+    <sheet name="首页轮播图" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品记录!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">收款码链接!$A$1:$B$8</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,12 +30,175 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>页面UUID</t>
+  </si>
+  <si>
+    <t>f84ba8ac-0c8e-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>初三下历史会考必备资料</t>
+  </si>
+  <si>
+    <t>e5bf5c42-0c7f-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>初三下政治会考必备资料</t>
+  </si>
+  <si>
+    <t>d822806e-0c93-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>政治历史汇总资料合集</t>
+  </si>
+  <si>
+    <t>b32c282a-0cc8-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>7、8年级生物书（电子版）</t>
+  </si>
+  <si>
+    <t>466ae81c-0ccc-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>7、8、9年级政治书（电子版）</t>
+  </si>
+  <si>
+    <t>45cbd5c0-0ccb-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>7、8、9年级历史书（电子版）</t>
+  </si>
+  <si>
+    <t>8d244114-0c0d-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>初二下生物地理会考资料</t>
+  </si>
+  <si>
+    <t>07f2b82c-0ccb-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>7、8年级地理书（电子版）</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>小图链接</t>
+  </si>
+  <si>
+    <t>介绍图链接</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/9ddc3a6282cc7ea71f685a1c39be66cebc07cc34.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/02f7cab6e9487516c257603b600cd684d2537a17.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/7637c6bfbbba662387aa12075c2c3c0280c2dd87.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/bf1e2fc872b7216d8b82be5f6a9bec8ffb97ee7f.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/924488ecc4df9168f522d0eb630bb94941450977.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/db85f3139ab3fe8af37f559b239f7898c81d73ef.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/485a8da7e4d3b3a3b05397cd732c3dd32296543f.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/bee7cabde8db71a61511ed3010a827f4552bcf82.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/de29fd1667661a1519442c0fcbf61e0bef5cfd79.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/69a5846050c1af14b3b4134dc7161e43bd4e2f20.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/b137e150bc889e1ca43bba3f7c8f8634d241cc91.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/cc568bfd913b1ef46efd5a22e6cc2a5fd032ed17.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/0f021f1135919d041adb9cda7fb39d301b092ecf.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/94139d19f689770eebfbcb52db8d9259f59821b9.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/9464a1be5acaa684245e73808b65751d10309653.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/ae19390d340516983652470fec91cf49ac02a5c2.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/b3a4c3f38100e69fb4ca4b397602073d8a960485.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/1d716091d63f4c444c7a945c8d1975cd8ecde837.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/bdaaa7525205cd75cb848b14d38eda705fd5b170.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/475a3d9cdcd1056a535011e78db934995d8a4877.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/229bc5890182027d32b35084225f07df62882f2f.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/cd395b1a6bcace36763bede1a2a051fd7f54887c.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/912eaa9eb728bd0cc8c3cfdaf65cf9199036af16.jpg</t>
+  </si>
+  <si>
+    <t>付款码链接</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$CNY]\ #,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +220,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +531,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39" style="1" customWidth="1"/>
+    <col min="6" max="6" width="77.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="80.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>46025001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>46025002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>46025003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>46025004</v>
+      </c>
+      <c r="C5" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>46025005</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>46025006</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>46025007</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>46025008</v>
+      </c>
+      <c r="C9" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+      <sortCondition ref="B1:B9"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{CCA72A03-ADD4-4299-BDAD-CE27A225A8C7}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{1AC09682-B76C-4F0F-8A39-D0EB06463ADE}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{10A2A35D-AB0A-4ADB-90A7-D715EC6E34E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B4ABBD-DFAC-4BB1-BB9C-00C8B19B6774}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>39.9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B8" xr:uid="{48B4ABBD-DFAC-4BB1-BB9C-00C8B19B6774}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+      <sortCondition ref="A1:A8"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D13C6CB-EE90-44EF-8735-FC0748F01634}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\jinjieup-shop.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5D5CB9-0C3A-4E27-BBF3-EB1C490B92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881F6B0-ECB2-4271-B389-A64CD9A23765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="1125" windowWidth="20340" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,17 +535,19 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="77.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="77.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="80.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
@@ -558,14 +560,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -581,14 +583,14 @@
       <c r="B2" s="1">
         <v>46025001</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3">
         <v>15.9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
@@ -604,14 +606,14 @@
       <c r="B3" s="1">
         <v>46025002</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>37</v>
@@ -627,14 +629,14 @@
       <c r="B4" s="1">
         <v>46025003</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>39</v>
@@ -650,14 +652,14 @@
       <c r="B5" s="1">
         <v>46025004</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
         <v>29.9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>41</v>
@@ -673,14 +675,14 @@
       <c r="B6" s="1">
         <v>46025005</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
         <v>12.9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>43</v>
@@ -696,14 +698,14 @@
       <c r="B7" s="1">
         <v>46025006</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
         <v>12.9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>45</v>
@@ -719,14 +721,14 @@
       <c r="B8" s="1">
         <v>46025007</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
         <v>15.9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>46</v>
@@ -742,14 +744,14 @@
       <c r="B9" s="1">
         <v>46025008</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
         <v>15.9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>47</v>
@@ -765,9 +767,9 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{CCA72A03-ADD4-4299-BDAD-CE27A225A8C7}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{1AC09682-B76C-4F0F-8A39-D0EB06463ADE}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{10A2A35D-AB0A-4ADB-90A7-D715EC6E34E4}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{CCA72A03-ADD4-4299-BDAD-CE27A225A8C7}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{1AC09682-B76C-4F0F-8A39-D0EB06463ADE}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{10A2A35D-AB0A-4ADB-90A7-D715EC6E34E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\jinjieup-shop.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881F6B0-ECB2-4271-B389-A64CD9A23765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A048624D-3AC2-4F7A-A3CD-6A1C2AD3CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="1125" windowWidth="20340" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>https://i0.hdslb.com/bfs/album/ae19390d340516983652470fec91cf49ac02a5c2.png</t>
   </si>
   <si>
-    <t>https://i0.hdslb.com/bfs/album/b3a4c3f38100e69fb4ca4b397602073d8a960485.png</t>
-  </si>
-  <si>
     <t>https://i0.hdslb.com/bfs/album/1d716091d63f4c444c7a945c8d1975cd8ecde837.png</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>付款码链接</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/827bd557a94bb507487518ac5d9189f7f731c163.jpg</t>
   </si>
 </sst>
 </file>
@@ -535,10 +535,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -662,10 +662,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,10 +685,10 @@
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,10 +708,10 @@
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,10 +731,10 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,10 +754,10 @@
         <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -770,9 +770,11 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{CCA72A03-ADD4-4299-BDAD-CE27A225A8C7}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{1AC09682-B76C-4F0F-8A39-D0EB06463ADE}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{10A2A35D-AB0A-4ADB-90A7-D715EC6E34E4}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{3B613905-7C50-4D6B-B489-A25CB994D0DA}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{9C973565-754E-47CD-B802-370113A8687F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\jinjieup-shop.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A048624D-3AC2-4F7A-A3CD-6A1C2AD3CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BAC92A-DA29-4F4F-8400-CC45570CD103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="1125" windowWidth="20340" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="1605" windowWidth="20340" windowHeight="12315" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品记录" sheetId="1" r:id="rId1"/>
     <sheet name="收款码链接" sheetId="2" r:id="rId2"/>
-    <sheet name="首页轮播图" sheetId="3" r:id="rId3"/>
+    <sheet name="分类列表" sheetId="4" r:id="rId3"/>
+    <sheet name="首页轮播图" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品记录!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">分类列表!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品记录!$A$1:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">收款码链接!$A$1:$B$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>商品名称</t>
   </si>
@@ -178,6 +180,78 @@
   </si>
   <si>
     <t>https://i0.hdslb.com/bfs/album/827bd557a94bb507487518ac5d9189f7f731c163.jpg</t>
+  </si>
+  <si>
+    <t>分类名称</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>电子书</t>
+  </si>
+  <si>
+    <t>会考</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>9a0093d4-0e41-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>513cde18-0e42-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>7a9e913e-0e42-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>a1fbaa28-0e42-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>d9af706c-0e42-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>c22e633a-0e42-11ed-861d-0242ac120002</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>成都孩子一定会用到的初二下学期生物地理会考复习资料~当年小主可是满分通过哟~</t>
+  </si>
+  <si>
+    <t>政治会考啥也不要怕，跟着资料学习，没有什么难的！</t>
+  </si>
+  <si>
+    <t>觉得单独购买两科太贵？看这！有优惠！</t>
+  </si>
+  <si>
+    <t>历史会考向来都是老大难问题，但只要学透了，便可以轻松应考！</t>
+  </si>
+  <si>
+    <t>正版初一初二电子生物书，请告知客服需要哪种版本!</t>
+  </si>
+  <si>
+    <t>正版初一初二电子地理书，请告知客服需要哪种版本!</t>
+  </si>
+  <si>
+    <t>正版初一初二电子历史书，请告知客服需要哪种版本!</t>
+  </si>
+  <si>
+    <t>正版初一初二电子政治书，请告知客服需要哪种版本!</t>
   </si>
 </sst>
 </file>
@@ -240,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,6 +323,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,13 +624,14 @@
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="77.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="31.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="77.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="80.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,16 +645,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -589,17 +670,20 @@
       <c r="D2" s="3">
         <v>15.9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -612,17 +696,20 @@
       <c r="D3" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -635,17 +722,20 @@
       <c r="D4" s="3">
         <v>19.899999999999999</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -658,17 +748,20 @@
       <c r="D5" s="3">
         <v>29.9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -681,17 +774,20 @@
       <c r="D6" s="3">
         <v>12.9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -704,17 +800,20 @@
       <c r="D7" s="3">
         <v>12.9</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -727,17 +826,20 @@
       <c r="D8" s="3">
         <v>15.9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -750,31 +852,35 @@
       <c r="D9" s="3">
         <v>15.9</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G9" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+  <autoFilter ref="A1:H9" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H9">
       <sortCondition ref="B1:B9"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{CCA72A03-ADD4-4299-BDAD-CE27A225A8C7}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{1AC09682-B76C-4F0F-8A39-D0EB06463ADE}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{10A2A35D-AB0A-4ADB-90A7-D715EC6E34E4}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{3B613905-7C50-4D6B-B489-A25CB994D0DA}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{9C973565-754E-47CD-B802-370113A8687F}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{CCA72A03-ADD4-4299-BDAD-CE27A225A8C7}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{1AC09682-B76C-4F0F-8A39-D0EB06463ADE}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{10A2A35D-AB0A-4ADB-90A7-D715EC6E34E4}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{3B613905-7C50-4D6B-B489-A25CB994D0DA}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{9C973565-754E-47CD-B802-370113A8687F}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{6603B3A8-E49C-4454-B975-F324CB50FDE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -869,6 +975,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8E8676-A980-4798-99DB-A30128A50179}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C7" xr:uid="{9E8E8676-A980-4798-99DB-A30128A50179}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+      <sortCondition descending="1" ref="C1:C7"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D13C6CB-EE90-44EF-8735-FC0748F01634}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\jinjieup-shop.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BAC92A-DA29-4F4F-8400-CC45570CD103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8924BB2F-75E6-4D61-90C3-203BB147071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="1605" windowWidth="20340" windowHeight="12315" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="2175" windowWidth="20340" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品记录" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>商品名称</t>
   </si>
@@ -252,6 +252,42 @@
   </si>
   <si>
     <t>正版初一初二电子政治书，请告知客服需要哪种版本!</t>
+  </si>
+  <si>
+    <t>五年级黄冈360°口算题卡（上下册）</t>
+  </si>
+  <si>
+    <t>fb06806e-7b00-4b90-a6a7-356e96412718</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/01/bcb62c4b7e690.jpg</t>
+  </si>
+  <si>
+    <t>小学</t>
+  </si>
+  <si>
+    <t>口算</t>
+  </si>
+  <si>
+    <t>60d0f659-69f2-4151-bd8f-adc80fc2cb88</t>
+  </si>
+  <si>
+    <t>20e7d2ee-2ea0-41c1-b7f5-27df42edf27f</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/01/0f43b41201133.png</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/01/5ca18f1ad4467.jpg</t>
+  </si>
+  <si>
+    <t>提升孩子计算能力的最好方法就是每天坚持练习口算题！</t>
+  </si>
+  <si>
+    <t>六年级黄冈360°口算题卡（上下册）</t>
+  </si>
+  <si>
+    <t>1f241e42-b898-40ff-ad61-fa412c2260cd</t>
   </si>
 </sst>
 </file>
@@ -314,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,6 +362,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,13 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,6 +904,49 @@
         <v>43</v>
       </c>
     </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1">
+        <v>46025009</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46025010</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H9" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H9">
@@ -878,19 +960,22 @@
     <hyperlink ref="H5" r:id="rId4" xr:uid="{3B613905-7C50-4D6B-B489-A25CB994D0DA}"/>
     <hyperlink ref="G5" r:id="rId5" xr:uid="{9C973565-754E-47CD-B802-370113A8687F}"/>
     <hyperlink ref="G8" r:id="rId6" xr:uid="{6603B3A8-E49C-4454-B975-F324CB50FDE9}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{76A1B90D-F121-4A80-94E9-CB800F67A82A}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{DCA95E6B-8922-4836-918B-CACE881582AF}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{22EDE160-6D69-46B1-8FED-E7C820373B9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B4ABBD-DFAC-4BB1-BB9C-00C8B19B6774}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,6 +1049,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B8" xr:uid="{48B4ABBD-DFAC-4BB1-BB9C-00C8B19B6774}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
@@ -976,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8E8676-A980-4798-99DB-A30128A50179}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,6 +1158,28 @@
       </c>
       <c r="C7" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\jinjieup-shop.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\jinjieup-shop.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8924BB2F-75E6-4D61-90C3-203BB147071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AFC1A9-10D7-422F-94F3-3710D33DDA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2175" windowWidth="20340" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="1950" windowWidth="20340" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品记录" sheetId="1" r:id="rId1"/>
-    <sheet name="收款码链接" sheetId="2" r:id="rId2"/>
-    <sheet name="分类列表" sheetId="4" r:id="rId3"/>
+    <sheet name="分类列表" sheetId="4" r:id="rId2"/>
+    <sheet name="收款码链接" sheetId="2" r:id="rId3"/>
     <sheet name="首页轮播图" sheetId="3" r:id="rId4"/>
+    <sheet name="组件链接" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">分类列表!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分类列表!$A$1:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品记录!$A$1:$H$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">收款码链接!$A$1:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">收款码链接!$A$1:$B$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
   <si>
     <t>商品名称</t>
   </si>
@@ -288,6 +290,141 @@
   </si>
   <si>
     <t>1f241e42-b898-40ff-ad61-fa412c2260cd</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/b3cbe038cfac1.jpg</t>
+  </si>
+  <si>
+    <t>c165311b-6c54-42ca-b98a-146870abbd08</t>
+  </si>
+  <si>
+    <t>初中单科教材（电子版）</t>
+  </si>
+  <si>
+    <t>e1d5fc63-939f-429a-b862-0a204e27efe5</t>
+  </si>
+  <si>
+    <t>再也不用担心复习的时候没书看，预习的时候找不到书啦！</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/69ac2f6ff3ee9.jpg</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>客服按钮</t>
+  </si>
+  <si>
+    <t>server.png</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/6b917540524bb.png</t>
+  </si>
+  <si>
+    <t>回顶按钮</t>
+  </si>
+  <si>
+    <t>top.png</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/1307601d6fff1.png</t>
+  </si>
+  <si>
+    <t>推荐标</t>
+  </si>
+  <si>
+    <t>recommonded.png</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/03c8be6f4a037.png</t>
+  </si>
+  <si>
+    <t>支付中心标题小图</t>
+  </si>
+  <si>
+    <t>payment-security.png</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/b7338765d3882.png</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>logo-standard.png</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/e3f7f3f456ba2.png</t>
+  </si>
+  <si>
+    <t>LOGO（圆角）</t>
+  </si>
+  <si>
+    <t>logo-smooth.png</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/c2ed9fd8b59a5.png</t>
+  </si>
+  <si>
+    <t>客服（企业微信）</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/70a2b2132fd09.jpg</t>
+  </si>
+  <si>
+    <t>wechat-work.jpg</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/897ebd6bdf8c4.png</t>
+  </si>
+  <si>
+    <t>邮件二维码</t>
+  </si>
+  <si>
+    <t>mailto：billy-lin.png</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/10/7494ed8925bd9.png</t>
+  </si>
+  <si>
+    <t>GitHub合并二维码</t>
+  </si>
+  <si>
+    <t>github-pulls.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/2093e1f698a78390d9ce57b017c6cbd93e096535.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/f47b7870eb98ce986aaf2ce79b8d18f583c8d26c.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/596806d51a364510bbf4adf8710ad057b12db60c.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/06fe18483227d039c3fe7f1d26d5d4fcdf483de3.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/64af164164474b5086b6b6028acea6a4ac245aa3.jpg</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/b575009b8e746097cea8ffad8c701552a3fbd3e0.png</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/album/b07e4dedd39d8388cf60f8091fe39202348c6871.png</t>
+  </si>
+  <si>
+    <t>初中</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/11/89c23861cfd37.png</t>
+  </si>
+  <si>
+    <t>https://f.pz.al/pzal/2022/08/11/df7b6b81ef0bb.jpg</t>
   </si>
 </sst>
 </file>
@@ -648,13 +785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +1012,7 @@
         <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -901,7 +1038,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -945,6 +1082,41 @@
       </c>
       <c r="E11" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46025011</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -963,116 +1135,23 @@
     <hyperlink ref="G10" r:id="rId7" xr:uid="{76A1B90D-F121-4A80-94E9-CB800F67A82A}"/>
     <hyperlink ref="H10" r:id="rId8" xr:uid="{DCA95E6B-8922-4836-918B-CACE881582AF}"/>
     <hyperlink ref="F10" r:id="rId9" xr:uid="{22EDE160-6D69-46B1-8FED-E7C820373B9F}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{AD8A7C3B-3D97-43C4-B18E-2F5EA0441021}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{358DF20F-841E-4E9E-9B3A-B3E8F595C80F}"/>
+    <hyperlink ref="G11" r:id="rId12" xr:uid="{74FCAE21-3244-4314-94AC-085896B6D1A8}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{574E6CCE-CA86-49BF-A838-829D6E640BCA}"/>
+    <hyperlink ref="F12" r:id="rId14" xr:uid="{660F1DA1-6DE8-4530-8167-6BE6DA1F59B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B4ABBD-DFAC-4BB1-BB9C-00C8B19B6774}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8E8676-A980-4798-99DB-A30128A50179}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>15.9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>29.9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>39.9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B8" xr:uid="{48B4ABBD-DFAC-4BB1-BB9C-00C8B19B6774}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
-      <sortCondition ref="A1:A8"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8E8676-A980-4798-99DB-A30128A50179}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1181,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,7 +1247,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,6 +1258,17 @@
         <v>79</v>
       </c>
       <c r="C9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1190,6 +1280,116 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B4ABBD-DFAC-4BB1-BB9C-00C8B19B6774}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>39.9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B8" xr:uid="{48B4ABBD-DFAC-4BB1-BB9C-00C8B19B6774}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+      <sortCondition ref="A1:A8"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{8B41A500-DE22-4C3F-8125-7EA1845B56CA}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{93F9E7BC-167D-418F-8ADB-18D2D9780159}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1244,4 +1444,176 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2CEF90-E964-4AA0-8774-01741C062F9D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DB9EE986-26D9-4935-8582-2E57F0577402}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{85C2C7BC-8370-4E09-B81D-4ED9A337637F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{0D20916F-E2E5-4CD7-A364-B9DB435C9036}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{AA87F0CB-6E53-47D6-9C26-DE6DA2ECD69C}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{BB6BD0BC-43D6-4DB5-BC06-C35EDC402AB6}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{861AAD1F-48DB-4536-A2ED-1CE9C593D637}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{3B556AFF-6DEF-42F4-8FF7-D3182E064337}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{3F8770AE-9C54-481D-A6BE-CB11B6F3B85A}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{BD8F8E3C-8F67-4A5A-8B53-4D376544429F}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{E3F584A5-44A6-4021-8331-FC3478BACA98}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{B027FF45-084E-4408-B517-FD354CEB2930}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{97C35B38-519C-499B-ACBD-F0FE322EBC53}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{8075D4A2-C5E1-46ED-AD95-61ABDB7E03EB}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{5606667B-74EF-44A5-8E8B-D1EDF597BFCF}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{239FA5FB-92DE-4A3B-90CD-23B34165A9BB}"/>
+    <hyperlink ref="D10" r:id="rId16" xr:uid="{65A1A3F4-C7D0-44CF-8B03-EB94635E062B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+</worksheet>
 </file>